--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1373,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="6">
-        <v>9000000</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
@@ -1408,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>5000000</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>400000000</v>
+        <v>3500000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="19335" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>3500000</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10845"/>
+    <workbookView windowWidth="17670" windowHeight="10845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1250,7 +1250,7 @@
         <v>80</v>
       </c>
       <c r="F4" s="6">
-        <v>400000000</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="6">
         <v>100</v>
@@ -1285,7 +1285,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6">
-        <v>400000000</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="6">
         <v>125</v>
@@ -1320,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>400000000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
@@ -1497,7 +1497,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17670" windowHeight="10845"/>
+    <workbookView windowWidth="14100" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1112,8 +1112,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
@@ -1367,13 +1367,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="5">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="E9" s="6">
         <v>30</v>
       </c>
       <c r="F9" s="6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
@@ -1382,7 +1382,7 @@
         <v>600</v>
       </c>
       <c r="I9" s="7">
-        <v>2000</v>
+        <v>1250</v>
       </c>
       <c r="J9">
         <v>1500</v>
@@ -1402,13 +1402,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="5">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
         <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
@@ -1417,7 +1417,7 @@
         <v>900</v>
       </c>
       <c r="I10" s="7">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="J10">
         <v>5000</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="12015"/>
+    <workbookView windowWidth="19485" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,13 +1314,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6">
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445"/>
+    <workbookView windowWidth="13635" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <v>10000</v>
@@ -1405,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
         <v>10000</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="11865"/>
+    <workbookView windowWidth="14910" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6">
         <v>10000</v>
@@ -1405,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6">
         <v>10000</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14910" windowHeight="12000"/>
+    <workbookView windowWidth="17565" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1285,7 +1285,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6">
-        <v>1000</v>
+        <v>99999999</v>
       </c>
       <c r="G5" s="6">
         <v>125</v>
@@ -1320,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
@@ -1367,7 +1367,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E9" s="6">
         <v>50</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17565" windowHeight="12075"/>
+    <workbookView windowWidth="15960" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +64,18 @@
     <t>inputDamageRate</t>
   </si>
   <si>
+    <t>outputDamageRate</t>
+  </si>
+  <si>
+    <t>critRate</t>
+  </si>
+  <si>
+    <t>critDamage</t>
+  </si>
+  <si>
+    <t>skillCD</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -101,6 +113,18 @@
   </si>
   <si>
     <t>承受伤害千分比</t>
+  </si>
+  <si>
+    <t>输出伤害千分比</t>
+  </si>
+  <si>
+    <t>暴击几率（千分比）</t>
+  </si>
+  <si>
+    <t>暴击伤害（千分比）</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1110,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1126,9 +1150,10 @@
     <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,78 +1187,114 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1302,7 @@
         <v>10001001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5">
         <v>500</v>
@@ -1267,8 +1328,20 @@
       <c r="K4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3000</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1349,7 @@
         <v>10001002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>380</v>
@@ -1302,8 +1375,20 @@
       <c r="K5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3000</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1396,7 @@
         <v>10001003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5">
         <v>100</v>
@@ -1337,8 +1422,20 @@
       <c r="K6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="3:9">
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>3000</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -1346,8 +1443,11 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="3:9">
+      <c r="N7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -1355,8 +1455,11 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1467,7 @@
         <v>10003001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5">
         <v>20</v>
@@ -1390,8 +1493,20 @@
       <c r="K9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1514,7 @@
         <v>10003002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5">
         <v>20</v>
@@ -1425,8 +1540,20 @@
       <c r="K10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="3:9">
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>3000</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
       <c r="C11" s="4"/>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
@@ -1434,8 +1561,11 @@
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="3:9">
+      <c r="N11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
       <c r="C12" s="4"/>
       <c r="D12" s="8"/>
       <c r="E12" s="6"/>
@@ -1443,8 +1573,11 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="3:9">
+      <c r="N12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
@@ -1452,8 +1585,11 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="3:9">
+      <c r="N13">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
@@ -1461,8 +1597,11 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="3:9">
+      <c r="N14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
       <c r="C15" s="4"/>
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
@@ -1470,8 +1609,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="3:9">
+      <c r="N15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
@@ -1479,8 +1621,11 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1633,7 @@
         <v>10003031</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5">
         <v>400</v>
@@ -1513,6 +1658,18 @@
       </c>
       <c r="K17">
         <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:9">

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15960" windowHeight="10395"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1136,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1399,19 +1399,19 @@
         <v>34</v>
       </c>
       <c r="D6" s="5">
-        <v>100</v>
+        <v>200000</v>
       </c>
       <c r="E6" s="6">
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>2000</v>
+        <v>1000000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
       </c>
       <c r="H6" s="7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I6" s="7">
         <v>6000</v>
@@ -1476,13 +1476,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="6">
-        <v>10000</v>
+        <v>750</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>
       </c>
       <c r="H9" s="7">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="7">
         <v>1250</v>
@@ -1517,19 +1517,19 @@
         <v>36</v>
       </c>
       <c r="D10" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6">
         <v>50</v>
       </c>
       <c r="F10" s="6">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="I10" s="7">
         <v>1250</v>
@@ -1636,13 +1636,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="6">
         <v>100</v>
       </c>
       <c r="F17" s="6">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1399,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="5">
-        <v>200000</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
         <v>40</v>
@@ -1523,7 +1523,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="6">
-        <v>500</v>
+        <v>5000000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1517,13 +1517,13 @@
         <v>36</v>
       </c>
       <c r="D10" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
         <v>50</v>
       </c>
       <c r="F10" s="6">
-        <v>5000000</v>
+        <v>750</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1523,7 +1523,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="6">
-        <v>750</v>
+        <v>7500000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="16665" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1405,7 +1405,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>1000000</v>
+        <v>20000</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
@@ -1523,7 +1523,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="6">
-        <v>7500000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="6">
         <v>125</v>
@@ -1811,7 +1811,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1828,7 +1828,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="8685"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1405,7 +1405,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="6">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="G6" s="6">
         <v>125</v>
@@ -1470,13 +1470,13 @@
         <v>35</v>
       </c>
       <c r="D9" s="5">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="E9" s="6">
         <v>50</v>
       </c>
       <c r="F9" s="6">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="G9" s="6">
         <v>125</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -127,16 +127,16 @@
     <t>技能冷却</t>
   </si>
   <si>
+    <t>唐依</t>
+  </si>
+  <si>
+    <t>怪物1 近战</t>
+  </si>
+  <si>
     <t>上官唯</t>
   </si>
   <si>
     <t>凤紫夕</t>
-  </si>
-  <si>
-    <t>唐依</t>
-  </si>
-  <si>
-    <t>怪物1 近战</t>
   </si>
   <si>
     <t>怪物2 远程</t>
@@ -1134,7 +1134,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1294,83 +1294,45 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>10001001</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>500</v>
-      </c>
-      <c r="E4" s="6">
-        <v>80</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>100</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1400</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3500</v>
-      </c>
-      <c r="J4">
-        <v>1500</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>3000</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
+    <row r="4" spans="3:9">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>10001002</v>
+        <v>10003</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6">
         <v>40</v>
       </c>
       <c r="F5" s="6">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="6">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="7">
         <v>3000</v>
       </c>
-      <c r="I5" s="7">
-        <v>4000</v>
-      </c>
       <c r="J5">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="K5">
         <v>1000</v>
@@ -1382,60 +1344,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>10001003</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6">
-        <v>40</v>
-      </c>
-      <c r="F6" s="6">
-        <v>500</v>
-      </c>
-      <c r="G6" s="6">
-        <v>125</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6000</v>
-      </c>
-      <c r="J6">
-        <v>7000</v>
-      </c>
-      <c r="K6">
-        <v>1000</v>
-      </c>
-      <c r="L6">
-        <v>1000</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>3000</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14">
+    <row r="6" spans="3:9">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="3:9">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
@@ -1443,218 +1367,188 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="N7">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>20001</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6">
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="3:14">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>850</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2000</v>
+      </c>
+      <c r="J8">
+        <v>1500</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
       <c r="N8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
+        <v>2000</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>10003001</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="5">
-        <v>180</v>
-      </c>
-      <c r="E9" s="6">
-        <v>50</v>
-      </c>
-      <c r="F9" s="6">
-        <v>200</v>
-      </c>
-      <c r="G9" s="6">
-        <v>125</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1200</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1250</v>
-      </c>
-      <c r="J9">
-        <v>1500</v>
-      </c>
-      <c r="K9">
-        <v>1000</v>
-      </c>
-      <c r="L9">
-        <v>1000</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>3000</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>10003002</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G10" s="6">
-        <v>125</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1250</v>
-      </c>
-      <c r="J10">
-        <v>5000</v>
-      </c>
-      <c r="K10">
-        <v>1000</v>
-      </c>
-      <c r="L10">
-        <v>1000</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>3000</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14">
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="3:9">
       <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="N11">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14">
+    </row>
+    <row r="12" spans="3:9">
       <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="N12">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14">
+    </row>
+    <row r="13" spans="3:9">
       <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="N13">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14">
+    </row>
+    <row r="14" spans="3:9">
       <c r="C14" s="4"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="N14">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14">
+    </row>
+    <row r="15" spans="3:9">
       <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="N15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16">
+        <v>10001001</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5">
+        <v>500</v>
+      </c>
+      <c r="E16" s="6">
+        <v>80</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3500</v>
+      </c>
+      <c r="J16">
+        <v>1500</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
       <c r="N16">
         <v>3000</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
+      <c r="O16">
         <v>0</v>
       </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17">
-        <v>10003031</v>
+        <v>10001002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="5">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="E17" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6">
-        <v>50000</v>
+        <v>99999999</v>
       </c>
       <c r="G17" s="6">
         <v>125</v>
       </c>
       <c r="H17" s="7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="7">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J17">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="K17">
         <v>1000</v>
@@ -1672,52 +1566,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="4"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="3:9">
+    <row r="18" spans="2:15">
+      <c r="B18">
+        <v>10001003</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6">
+        <v>500</v>
+      </c>
+      <c r="G18" s="6">
+        <v>125</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I18" s="7">
+        <v>6000</v>
+      </c>
+      <c r="J18">
+        <v>7000</v>
+      </c>
+      <c r="K18">
+        <v>1000</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3000</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="N19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="N20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21">
+        <v>10003001</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5">
+        <v>180</v>
+      </c>
+      <c r="E21" s="6">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <v>200</v>
+      </c>
+      <c r="G21" s="6">
+        <v>125</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1250</v>
+      </c>
+      <c r="J21">
+        <v>1500</v>
+      </c>
+      <c r="K21">
+        <v>1000</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>3000</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22">
+        <v>10003002</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>125</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1250</v>
+      </c>
+      <c r="J22">
+        <v>5000</v>
+      </c>
+      <c r="K22">
+        <v>1000</v>
+      </c>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>3000</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
       <c r="E23" s="6"/>
@@ -1725,8 +1730,11 @@
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="3:9">
+      <c r="N23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24" s="4"/>
       <c r="D24" s="8"/>
       <c r="E24" s="6"/>
@@ -1734,8 +1742,11 @@
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="N24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25" s="4"/>
       <c r="D25" s="8"/>
       <c r="E25" s="6"/>
@@ -1743,8 +1754,11 @@
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="N25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
       <c r="E26" s="6"/>
@@ -1752,8 +1766,11 @@
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="3:9">
+      <c r="N26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27" s="4"/>
       <c r="D27" s="8"/>
       <c r="E27" s="6"/>
@@ -1761,8 +1778,11 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="3:9">
+      <c r="N27">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="4"/>
       <c r="D28" s="8"/>
       <c r="E28" s="6"/>
@@ -1770,15 +1790,53 @@
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="N28">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29">
+        <v>10003031</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="5">
+        <v>500</v>
+      </c>
+      <c r="E29" s="6">
+        <v>100</v>
+      </c>
+      <c r="F29" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G29" s="6">
+        <v>125</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J29">
+        <v>1500</v>
+      </c>
+      <c r="K29">
+        <v>1000</v>
+      </c>
+      <c r="L29">
+        <v>1000</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>3000</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="4"/>
@@ -1797,6 +1855,114 @@
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="4"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="4"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="4"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="4"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="4"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="4"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="4"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="4"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="4"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="4"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="4"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="4"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1320,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="6">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G5" s="6">
         <v>20</v>
@@ -1385,7 +1385,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="6">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="18855" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>唐依</t>
+  </si>
+  <si>
+    <t>夜魂</t>
   </si>
   <si>
     <t>怪物1 近战</t>
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1350,14 +1353,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>10004</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J6">
+        <v>1500</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2000</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="4"/>
@@ -1376,7 +1417,7 @@
         <v>20001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5">
         <v>40</v>
@@ -1483,7 +1524,7 @@
         <v>10001001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5">
         <v>500</v>
@@ -1527,7 +1568,7 @@
         <v>10001002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="5">
         <v>380</v>
@@ -1639,7 +1680,7 @@
         <v>10003001</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5">
         <v>180</v>
@@ -1683,7 +1724,7 @@
         <v>10003002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
@@ -1799,7 +1840,7 @@
         <v>10003031</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5">
         <v>500</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="10890"/>
+    <workbookView windowWidth="15735" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>夜魂</t>
+  </si>
+  <si>
+    <t>萧玉</t>
   </si>
   <si>
     <t>怪物1 近战</t>
@@ -1137,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1400,70 +1403,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>10005</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J7">
+        <v>5500</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
         <v>20001</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
         <v>40</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>50</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>300000</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>850</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>2000</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>1500</v>
       </c>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-      <c r="L8">
-        <v>1000</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>2000</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="4"/>
@@ -1519,77 +1560,42 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16">
-        <v>10001001</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5">
-        <v>500</v>
-      </c>
-      <c r="E16" s="6">
-        <v>80</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>100</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1400</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3500</v>
-      </c>
-      <c r="J16">
-        <v>1500</v>
-      </c>
-      <c r="K16">
-        <v>1000</v>
-      </c>
-      <c r="L16">
-        <v>1000</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>3000</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
+    <row r="16" spans="3:9">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17">
-        <v>10001002</v>
+        <v>10001001</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="E17" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F17" s="6">
-        <v>99999999</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="6">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="7">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="K17">
         <v>1000</v>
@@ -1609,19 +1615,19 @@
     </row>
     <row r="18" spans="2:15">
       <c r="B18">
-        <v>10001003</v>
+        <v>10001002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="E18" s="6">
         <v>40</v>
       </c>
       <c r="F18" s="6">
-        <v>500</v>
+        <v>99999999</v>
       </c>
       <c r="G18" s="6">
         <v>125</v>
@@ -1630,7 +1636,7 @@
         <v>3000</v>
       </c>
       <c r="I18" s="7">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="J18">
         <v>7000</v>
@@ -1651,16 +1657,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+    <row r="19" spans="2:15">
+      <c r="B19">
+        <v>10001003</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6">
+        <v>500</v>
+      </c>
+      <c r="G19" s="6">
+        <v>125</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6000</v>
+      </c>
+      <c r="J19">
+        <v>7000</v>
+      </c>
+      <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
       <c r="N19">
         <v>3000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -1675,77 +1713,45 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21">
-        <v>10003001</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5">
-        <v>180</v>
-      </c>
-      <c r="E21" s="6">
-        <v>50</v>
-      </c>
-      <c r="F21" s="6">
-        <v>200</v>
-      </c>
-      <c r="G21" s="6">
-        <v>125</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1200</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1250</v>
-      </c>
-      <c r="J21">
-        <v>1500</v>
-      </c>
-      <c r="K21">
-        <v>1000</v>
-      </c>
-      <c r="L21">
-        <v>1000</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
+    <row r="21" spans="3:14">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="N21">
         <v>3000</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22">
-        <v>10003002</v>
+        <v>10003001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="5">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="E22" s="6">
         <v>50</v>
       </c>
       <c r="F22" s="6">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G22" s="6">
         <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I22" s="7">
         <v>1250</v>
       </c>
       <c r="J22">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="K22">
         <v>1000</v>
@@ -1763,16 +1769,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:14">
-      <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+    <row r="23" spans="2:15">
+      <c r="B23">
+        <v>10003002</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>50</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G23" s="6">
+        <v>125</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1250</v>
+      </c>
+      <c r="J23">
+        <v>5000</v>
+      </c>
+      <c r="K23">
+        <v>1000</v>
+      </c>
+      <c r="L23">
+        <v>1000</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <v>3000</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -1835,58 +1873,61 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29">
-        <v>10003031</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5">
-        <v>500</v>
-      </c>
-      <c r="E29" s="6">
-        <v>100</v>
-      </c>
-      <c r="F29" s="6">
-        <v>50000</v>
-      </c>
-      <c r="G29" s="6">
-        <v>125</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="7">
-        <v>3000</v>
-      </c>
-      <c r="J29">
-        <v>1500</v>
-      </c>
-      <c r="K29">
-        <v>1000</v>
-      </c>
-      <c r="L29">
-        <v>1000</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
+    <row r="29" spans="3:14">
+      <c r="C29" s="4"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
       <c r="N29">
         <v>3000</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30">
+        <v>10003031</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5">
+        <v>500</v>
+      </c>
+      <c r="E30" s="6">
+        <v>100</v>
+      </c>
+      <c r="F30" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G30" s="6">
+        <v>125</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J30">
+        <v>1500</v>
+      </c>
+      <c r="K30">
+        <v>1000</v>
+      </c>
+      <c r="L30">
+        <v>1000</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>3000</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="4"/>
@@ -2004,6 +2045,15 @@
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="4"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="18105" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -136,7 +136,13 @@
     <t>萧玉</t>
   </si>
   <si>
+    <t>承灵</t>
+  </si>
+  <si>
     <t>怪物1 近战</t>
+  </si>
+  <si>
+    <t>承灵 q 召唤物</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1140,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1450,61 +1456,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>20001</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>10006</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D8" s="5">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6">
         <v>40</v>
       </c>
-      <c r="E9" s="6">
-        <v>50</v>
-      </c>
-      <c r="F9" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>850</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="F8" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="6">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J8">
+        <v>1500</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>2000</v>
       </c>
-      <c r="J9">
-        <v>1500</v>
-      </c>
-      <c r="K9">
-        <v>1000</v>
-      </c>
-      <c r="L9">
-        <v>1000</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>2000</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="4"/>
@@ -1542,14 +1548,52 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>20001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6">
+        <v>300000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>850</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>1500</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2000</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="4"/>
@@ -1560,148 +1604,81 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17">
-        <v>10001001</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5">
-        <v>500</v>
-      </c>
-      <c r="E17" s="6">
-        <v>80</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="6">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1400</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3500</v>
-      </c>
-      <c r="J17">
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>20501</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J16">
         <v>1500</v>
       </c>
-      <c r="K17">
-        <v>1000</v>
-      </c>
-      <c r="L17">
-        <v>1000</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>3000</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18">
-        <v>10001002</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="5">
-        <v>380</v>
-      </c>
-      <c r="E18" s="6">
-        <v>40</v>
-      </c>
-      <c r="F18" s="6">
-        <v>99999999</v>
-      </c>
-      <c r="G18" s="6">
-        <v>125</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4000</v>
-      </c>
-      <c r="J18">
-        <v>7000</v>
-      </c>
-      <c r="K18">
-        <v>1000</v>
-      </c>
-      <c r="L18">
-        <v>1000</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>3000</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19">
-        <v>10001003</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="5">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <v>40</v>
-      </c>
-      <c r="F19" s="6">
-        <v>500</v>
-      </c>
-      <c r="G19" s="6">
-        <v>125</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6000</v>
-      </c>
-      <c r="J19">
-        <v>7000</v>
-      </c>
-      <c r="K19">
-        <v>1000</v>
-      </c>
-      <c r="L19">
-        <v>1000</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>3000</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14">
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2000</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
@@ -1709,11 +1686,8 @@
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="N20">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
@@ -1721,34 +1695,31 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="N21">
-        <v>3000</v>
-      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22">
-        <v>10003001</v>
+        <v>10001001</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E22" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F22" s="6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="6">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="7">
-        <v>1250</v>
+        <v>3500</v>
       </c>
       <c r="J22">
         <v>1500</v>
@@ -1771,31 +1742,31 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23">
-        <v>10003002</v>
+        <v>10001002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="5">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="E23" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F23" s="6">
-        <v>20000</v>
+        <v>99999999</v>
       </c>
       <c r="G23" s="6">
         <v>125</v>
       </c>
       <c r="H23" s="7">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="7">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="J23">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="K23">
         <v>1000</v>
@@ -1813,21 +1784,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:14">
-      <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+    <row r="24" spans="2:15">
+      <c r="B24">
+        <v>10001003</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6">
+        <v>40</v>
+      </c>
+      <c r="F24" s="6">
+        <v>500</v>
+      </c>
+      <c r="G24" s="6">
+        <v>125</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6000</v>
+      </c>
+      <c r="J24">
+        <v>7000</v>
+      </c>
+      <c r="K24">
+        <v>1000</v>
+      </c>
+      <c r="L24">
+        <v>1000</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
       <c r="N24">
         <v>3000</v>
       </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="3:14">
       <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1849,28 +1852,92 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="3:14">
-      <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+    <row r="27" spans="2:15">
+      <c r="B27">
+        <v>10003001</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>180</v>
+      </c>
+      <c r="E27" s="6">
+        <v>50</v>
+      </c>
+      <c r="F27" s="6">
+        <v>200</v>
+      </c>
+      <c r="G27" s="6">
+        <v>125</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1250</v>
+      </c>
+      <c r="J27">
+        <v>1500</v>
+      </c>
+      <c r="K27">
+        <v>1000</v>
+      </c>
+      <c r="L27">
+        <v>1000</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
       <c r="N27">
         <v>3000</v>
       </c>
-    </row>
-    <row r="28" spans="3:14">
-      <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28">
+        <v>10003002</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6">
+        <v>50</v>
+      </c>
+      <c r="F28" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G28" s="6">
+        <v>125</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1250</v>
+      </c>
+      <c r="J28">
+        <v>5000</v>
+      </c>
+      <c r="K28">
+        <v>1000</v>
+      </c>
+      <c r="L28">
+        <v>1000</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>3000</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:14">
@@ -1885,51 +1952,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
-      <c r="B30">
-        <v>10003031</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="5">
-        <v>500</v>
-      </c>
-      <c r="E30" s="6">
-        <v>100</v>
-      </c>
-      <c r="F30" s="6">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="6">
-        <v>125</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="7">
-        <v>3000</v>
-      </c>
-      <c r="J30">
-        <v>1500</v>
-      </c>
-      <c r="K30">
-        <v>1000</v>
-      </c>
-      <c r="L30">
-        <v>1000</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
+    <row r="30" spans="3:14">
+      <c r="C30" s="4"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
       <c r="N30">
         <v>3000</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
+    </row>
+    <row r="31" spans="3:14">
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
       <c r="E31" s="6"/>
@@ -1937,8 +1972,11 @@
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="3:9">
+      <c r="N31">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
       <c r="E32" s="6"/>
@@ -1946,8 +1984,11 @@
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="3:9">
+      <c r="N32">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
       <c r="E33" s="6"/>
@@ -1955,8 +1996,11 @@
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="3:9">
+      <c r="N33">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
       <c r="E34" s="6"/>
@@ -1964,15 +2008,53 @@
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="4"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="N34">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35">
+        <v>10003031</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5">
+        <v>500</v>
+      </c>
+      <c r="E35" s="6">
+        <v>100</v>
+      </c>
+      <c r="F35" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G35" s="6">
+        <v>125</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J35">
+        <v>1500</v>
+      </c>
+      <c r="K35">
+        <v>1000</v>
+      </c>
+      <c r="L35">
+        <v>1000</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>3000</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="4"/>
@@ -2054,6 +2136,51 @@
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="4"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="4"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="4"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="4"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="4"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>承灵 q 召唤物</t>
+  </si>
+  <si>
+    <t>承灵 大招 召唤物</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -770,9 +773,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -783,8 +789,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1149,17 +1158,17 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="10.375"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
@@ -1169,10 +1178,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1187,10 +1196,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1219,7 +1228,7 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
@@ -1263,10 +1272,10 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -1281,10 +1290,10 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
@@ -1307,13 +1316,13 @@
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -1322,25 +1331,25 @@
       <c r="B5">
         <v>10003</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>100</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>40</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>100000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>20</v>
       </c>
-      <c r="H5" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="9">
         <v>3000</v>
       </c>
       <c r="J5">
@@ -1369,25 +1378,25 @@
       <c r="B6">
         <v>10004</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>60</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>60</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>100000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>20</v>
       </c>
-      <c r="H6" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="9">
         <v>3000</v>
       </c>
       <c r="J6">
@@ -1416,25 +1425,25 @@
       <c r="B7">
         <v>10005</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>65</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>45</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>100000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>20</v>
       </c>
-      <c r="H7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="9">
         <v>3000</v>
       </c>
       <c r="J7">
@@ -1463,25 +1472,25 @@
       <c r="B8">
         <v>10006</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>70</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>40</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>100000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>20</v>
       </c>
-      <c r="H8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="H8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="9">
         <v>3000</v>
       </c>
       <c r="J8">
@@ -1504,49 +1513,49 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -1555,25 +1564,25 @@
       <c r="B14">
         <v>20001</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>40</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>300000</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
         <v>850</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>2000</v>
       </c>
       <c r="J14">
@@ -1596,13 +1605,13 @@
       </c>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -1611,25 +1620,25 @@
       <c r="B16">
         <v>20501</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
         <v>60</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>20</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>5000</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="9">
         <v>4000</v>
       </c>
       <c r="J16">
@@ -1651,74 +1660,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+    <row r="17" ht="27" spans="1:15">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>20502</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7">
+        <v>200</v>
+      </c>
+      <c r="E17" s="8">
+        <v>80</v>
+      </c>
+      <c r="F17" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J17">
+        <v>1500</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22">
         <v>10001001</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
         <v>500</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>80</v>
       </c>
-      <c r="F22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="8">
         <v>100</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <v>1400</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <v>3500</v>
       </c>
       <c r="J22">
@@ -1744,25 +1791,25 @@
       <c r="B23">
         <v>10001002</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7">
         <v>380</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="8">
         <v>40</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>99999999</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="8">
         <v>125</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="9">
         <v>3000</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="9">
         <v>4000</v>
       </c>
       <c r="J23">
@@ -1788,25 +1835,25 @@
       <c r="B24">
         <v>10001003</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="7">
         <v>10</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="8">
         <v>40</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>500</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <v>125</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="9">
         <v>3000</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="9">
         <v>6000</v>
       </c>
       <c r="J24">
@@ -1829,25 +1876,25 @@
       </c>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="N25">
         <v>3000</v>
       </c>
     </row>
     <row r="26" spans="3:14">
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="N26">
         <v>3000</v>
       </c>
@@ -1856,25 +1903,25 @@
       <c r="B27">
         <v>10003001</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="7">
         <v>180</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="8">
         <v>50</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>200</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="8">
         <v>125</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="9">
         <v>1200</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <v>1250</v>
       </c>
       <c r="J27">
@@ -1900,25 +1947,25 @@
       <c r="B28">
         <v>10003002</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="7">
         <v>20</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="8">
         <v>50</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>20000</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="8">
         <v>125</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="9">
         <v>1500</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="9">
         <v>1250</v>
       </c>
       <c r="J28">
@@ -1941,73 +1988,73 @@
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="N29">
         <v>3000</v>
       </c>
     </row>
     <row r="30" spans="3:14">
-      <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="N30">
         <v>3000</v>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="C31" s="4"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="N31">
         <v>3000</v>
       </c>
     </row>
     <row r="32" spans="3:14">
-      <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="N32">
         <v>3000</v>
       </c>
     </row>
     <row r="33" spans="3:14">
-      <c r="C33" s="4"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="N33">
         <v>3000</v>
       </c>
     </row>
     <row r="34" spans="3:14">
-      <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="N34">
         <v>3000</v>
       </c>
@@ -2016,25 +2063,25 @@
       <c r="B35">
         <v>10003031</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="7">
         <v>500</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="8">
         <v>100</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="8">
         <v>50000</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <v>125</v>
       </c>
-      <c r="H35" s="7">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="H35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="9">
         <v>3000</v>
       </c>
       <c r="J35">
@@ -2057,130 +2104,130 @@
       </c>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="4"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="4"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="4"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="3:9">
-      <c r="C40" s="4"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="3:9">
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="3:9">
-      <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="4"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="3:9">
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18105" windowHeight="10890"/>
+    <workbookView windowWidth="16245" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1476,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="E8" s="8">
         <v>40</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="10890"/>
+    <workbookView windowWidth="15750" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -76,6 +76,9 @@
     <t>skillCD</t>
   </si>
   <si>
+    <t>healthRecoverSpeed</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>技能冷却</t>
+  </si>
+  <si>
+    <t>生命恢复速度（*1000）每秒</t>
   </si>
   <si>
     <t>唐依</t>
@@ -1155,10 +1161,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="I3" activePane="bottomLeft"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1172,9 +1182,10 @@
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,99 +1231,108 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:16">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:9">
@@ -1324,7 +1344,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1352,7 @@
         <v>10003</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
         <v>100</v>
@@ -1370,8 +1390,11 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1402,7 @@
         <v>10004</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7">
         <v>60</v>
@@ -1417,8 +1440,11 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1452,7 @@
         <v>10005</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
         <v>65</v>
@@ -1464,8 +1490,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1502,7 @@
         <v>10006</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
         <v>300</v>
@@ -1510,6 +1539,9 @@
       </c>
       <c r="O8">
         <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="3:9">
@@ -1557,7 +1589,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1597,7 @@
         <v>20001</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
         <v>40</v>
@@ -1602,6 +1634,9 @@
       </c>
       <c r="O14">
         <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="3:9">
@@ -1613,7 +1648,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>20501</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
         <v>60</v>
@@ -1659,8 +1694,11 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="27" spans="1:15">
+      <c r="P16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:16">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1706,7 @@
         <v>20502</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
         <v>200</v>
@@ -1705,6 +1743,9 @@
       </c>
       <c r="O17">
         <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="3:9">
@@ -1748,7 +1789,7 @@
         <v>10001001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
         <v>500</v>
@@ -1792,7 +1833,7 @@
         <v>10001002</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" s="7">
         <v>380</v>
@@ -1836,7 +1877,7 @@
         <v>10001003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7">
         <v>10</v>
@@ -1904,7 +1945,7 @@
         <v>10003001</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" s="7">
         <v>180</v>
@@ -1948,7 +1989,7 @@
         <v>10003002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7">
         <v>20</v>
@@ -2064,7 +2105,7 @@
         <v>10003031</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="7">
         <v>500</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="10890"/>
+    <workbookView windowWidth="15780" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>承灵 大招 召唤物</t>
+  </si>
+  <si>
+    <t>自爆人召唤物</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -1164,10 +1167,10 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="I3" activePane="bottomLeft"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="A3" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
@@ -1757,14 +1760,55 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>20801</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8">
+        <v>350</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J19">
+        <v>1500</v>
+      </c>
+      <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1200</v>
+      </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="6"/>
@@ -1789,7 +1833,7 @@
         <v>10001001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
         <v>500</v>
@@ -1833,7 +1877,7 @@
         <v>10001002</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="7">
         <v>380</v>
@@ -1989,7 +2033,7 @@
         <v>10003002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="7">
         <v>20</v>
@@ -2105,7 +2149,7 @@
         <v>10003031</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="7">
         <v>500</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1167,11 +1167,11 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="A3" activePane="bottomLeft"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="A3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="10890"/>
+    <workbookView windowWidth="14940" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,11 +1167,11 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="A3" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="L3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10890"/>
+    <workbookView windowWidth="16005" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -76,6 +76,9 @@
     <t>skillCD</t>
   </si>
   <si>
+    <t>treatmentRate</t>
+  </si>
+  <si>
     <t>healthRecoverSpeed</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>技能冷却</t>
+  </si>
+  <si>
+    <t>治疗比率</t>
   </si>
   <si>
     <t>生命恢复速度（*1000）每秒</t>
@@ -1164,14 +1170,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="L3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="5610" ySplit="2715" topLeftCell="B3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1185,10 +1191,11 @@
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="16" max="16" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,105 +1244,114 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:16">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:17">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="3:9">
@@ -1347,7 +1363,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1371,7 @@
         <v>10003</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
         <v>100</v>
@@ -1394,10 +1410,13 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>1000</v>
+      </c>
+      <c r="Q5">
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1424,7 @@
         <v>10004</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
         <v>60</v>
@@ -1444,10 +1463,13 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>1000</v>
+      </c>
+      <c r="Q6">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1477,7 @@
         <v>10005</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
         <v>65</v>
@@ -1494,10 +1516,13 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>1000</v>
+      </c>
+      <c r="Q7">
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1530,7 @@
         <v>10006</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
         <v>300</v>
@@ -1544,6 +1569,9 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="Q8">
         <v>1200</v>
       </c>
     </row>
@@ -1592,7 +1620,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1600,10 +1628,10 @@
         <v>20001</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="8">
         <v>50</v>
@@ -1639,6 +1667,9 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>1000</v>
+      </c>
+      <c r="Q14">
         <v>1200</v>
       </c>
     </row>
@@ -1651,7 +1682,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1690,7 @@
         <v>20501</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
         <v>60</v>
@@ -1698,10 +1729,13 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>1000</v>
+      </c>
+      <c r="Q16">
         <v>1200</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:16">
+    <row r="17" ht="27" spans="1:17">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1743,7 @@
         <v>20502</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
         <v>200</v>
@@ -1748,6 +1782,9 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>1000</v>
+      </c>
+      <c r="Q17">
         <v>1200</v>
       </c>
     </row>
@@ -1760,7 +1797,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1805,7 @@
         <v>20801</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
         <v>60</v>
@@ -1807,6 +1844,9 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>1000</v>
+      </c>
+      <c r="Q19">
         <v>1200</v>
       </c>
     </row>
@@ -1833,7 +1873,7 @@
         <v>10001001</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D22" s="7">
         <v>500</v>
@@ -1877,7 +1917,7 @@
         <v>10001002</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7">
         <v>380</v>
@@ -1921,7 +1961,7 @@
         <v>10001003</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7">
         <v>10</v>
@@ -1989,7 +2029,7 @@
         <v>10003001</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D27" s="7">
         <v>180</v>
@@ -2033,7 +2073,7 @@
         <v>10003002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D28" s="7">
         <v>20</v>
@@ -2149,7 +2189,7 @@
         <v>10003031</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" s="7">
         <v>500</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10890"/>
+    <workbookView windowWidth="16455" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,11 +1173,11 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="B3" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="C3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1631,13 +1631,13 @@
         <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>300000</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="11430"/>
+    <workbookView windowWidth="17430" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1631,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E14" s="8">
         <v>10</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1177,7 +1177,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1427,7 +1427,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8">
         <v>60</v>
@@ -1480,7 +1480,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E7" s="8">
         <v>45</v>
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8">
         <v>40</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17430" windowHeight="11430"/>
+    <workbookView windowWidth="19755" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:D8"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19755" windowHeight="11430"/>
+    <workbookView windowWidth="16065" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1637,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>20</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1177,7 +1177,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1631,13 +1631,13 @@
         <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E14" s="8">
         <v>10</v>
       </c>
       <c r="F14" s="8">
-        <v>2000000</v>
+        <v>700</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16065" windowHeight="11430"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -139,6 +139,12 @@
     <t>生命恢复速度（*1000）每秒</t>
   </si>
   <si>
+    <t>隐墨</t>
+  </si>
+  <si>
+    <t>凤紫夕</t>
+  </si>
+  <si>
     <t>唐依</t>
   </si>
   <si>
@@ -164,9 +170,6 @@
   </si>
   <si>
     <t>上官唯</t>
-  </si>
-  <si>
-    <t>凤紫夕</t>
   </si>
   <si>
     <t>怪物2 远程</t>
@@ -1170,14 +1173,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="C3" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="B1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1363,127 +1366,39 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>10003</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="7">
-        <v>100</v>
-      </c>
-      <c r="E5" s="8">
-        <v>40</v>
-      </c>
-      <c r="F5" s="8">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="8">
-        <v>20</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J5">
-        <v>5500</v>
-      </c>
-      <c r="K5">
-        <v>1000</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>2000</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1000</v>
-      </c>
-      <c r="Q5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>10004</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7">
-        <v>100</v>
-      </c>
-      <c r="E6" s="8">
-        <v>60</v>
-      </c>
-      <c r="F6" s="8">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J6">
-        <v>1500</v>
-      </c>
-      <c r="K6">
-        <v>1000</v>
-      </c>
-      <c r="L6">
-        <v>1000</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2000</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1000</v>
-      </c>
-      <c r="Q6">
-        <v>1200</v>
-      </c>
+    <row r="5" spans="3:9">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
         <v>100</v>
       </c>
       <c r="E7" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8">
         <v>100000</v>
@@ -1527,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
         <v>100</v>
@@ -1551,7 +1466,7 @@
         <v>3000</v>
       </c>
       <c r="J8">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="K8">
         <v>1000</v>
@@ -1575,41 +1490,217 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>10003</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J9">
+        <v>5500</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1000</v>
+      </c>
+      <c r="Q9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10004</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100</v>
+      </c>
+      <c r="E10" s="8">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J10">
+        <v>1500</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2000</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1000</v>
+      </c>
+      <c r="Q10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="8">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J11">
+        <v>5500</v>
+      </c>
+      <c r="K11">
+        <v>1000</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1000</v>
+      </c>
+      <c r="Q11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10006</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100</v>
+      </c>
+      <c r="E12" s="8">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J12">
+        <v>1500</v>
+      </c>
+      <c r="K12">
+        <v>1000</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2000</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1000</v>
+      </c>
+      <c r="Q12">
+        <v>1200</v>
+      </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="6"/>
@@ -1620,58 +1711,14 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>20001</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>100</v>
-      </c>
-      <c r="E14" s="8">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8">
-        <v>700</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>850</v>
-      </c>
-      <c r="I14" s="9">
-        <v>2000</v>
-      </c>
-      <c r="J14">
-        <v>1500</v>
-      </c>
-      <c r="K14">
-        <v>1000</v>
-      </c>
-      <c r="L14">
-        <v>1000</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>2000</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1000</v>
-      </c>
-      <c r="Q14">
-        <v>1200</v>
-      </c>
+    <row r="14" spans="3:9">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="6"/>
@@ -1682,263 +1729,231 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="3:9">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>20001</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>850</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>1500</v>
+      </c>
+      <c r="K18">
+        <v>1000</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2000</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1000</v>
+      </c>
+      <c r="Q18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <v>20501</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7">
         <v>60</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E20" s="8">
         <v>20</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F20" s="8">
         <v>5000</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="9">
         <v>4000</v>
       </c>
-      <c r="J16">
+      <c r="J20">
         <v>1500</v>
       </c>
-      <c r="K16">
-        <v>1000</v>
-      </c>
-      <c r="L16">
-        <v>1000</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="K20">
+        <v>1000</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>2000</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1000</v>
-      </c>
-      <c r="Q16">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1000</v>
+      </c>
+      <c r="Q20">
         <v>1200</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+    <row r="21" ht="27" spans="1:17">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
         <v>20502</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7">
         <v>200</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E21" s="8">
         <v>80</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F21" s="8">
         <v>20000</v>
       </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
         <v>2000</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I21" s="9">
         <v>3000</v>
       </c>
-      <c r="J17">
+      <c r="J21">
         <v>1500</v>
       </c>
-      <c r="K17">
-        <v>1000</v>
-      </c>
-      <c r="L17">
-        <v>1000</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="K21">
+        <v>1000</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>2000</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1000</v>
-      </c>
-      <c r="Q17">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1000</v>
+      </c>
+      <c r="Q21">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+    <row r="22" spans="3:9">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
         <v>20801</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7">
-        <v>60</v>
-      </c>
-      <c r="E19" s="8">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8">
-        <v>350</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="9">
-        <v>4000</v>
-      </c>
-      <c r="J19">
-        <v>1500</v>
-      </c>
-      <c r="K19">
-        <v>1000</v>
-      </c>
-      <c r="L19">
-        <v>1000</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>2000</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>1000</v>
-      </c>
-      <c r="Q19">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22">
-        <v>10001001</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="7">
-        <v>500</v>
-      </c>
-      <c r="E22" s="8">
-        <v>80</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="8">
-        <v>100</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I22" s="9">
-        <v>3500</v>
-      </c>
-      <c r="J22">
-        <v>1500</v>
-      </c>
-      <c r="K22">
-        <v>1000</v>
-      </c>
-      <c r="L22">
-        <v>1000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>3000</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23">
-        <v>10001002</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="E23" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8">
-        <v>99999999</v>
+        <v>350</v>
       </c>
       <c r="G23" s="8">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="9">
         <v>4000</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="K23">
         <v>1000</v>
@@ -1950,57 +1965,28 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24">
-        <v>10001003</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="7">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8">
-        <v>40</v>
-      </c>
-      <c r="F24" s="8">
-        <v>500</v>
-      </c>
-      <c r="G24" s="8">
-        <v>125</v>
-      </c>
-      <c r="H24" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I24" s="9">
-        <v>6000</v>
-      </c>
-      <c r="J24">
-        <v>7000</v>
-      </c>
-      <c r="K24">
-        <v>1000</v>
-      </c>
-      <c r="L24">
-        <v>1000</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>3000</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14">
+      <c r="P23">
+        <v>1000</v>
+      </c>
+      <c r="Q23">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="3:9">
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
@@ -2008,49 +1994,78 @@
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="N25">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26">
+        <v>10001001</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7">
+        <v>500</v>
+      </c>
+      <c r="E26" s="8">
+        <v>80</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="8">
+        <v>100</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1400</v>
+      </c>
+      <c r="I26" s="9">
+        <v>3500</v>
+      </c>
+      <c r="J26">
+        <v>1500</v>
+      </c>
+      <c r="K26">
+        <v>1000</v>
+      </c>
+      <c r="L26">
+        <v>1000</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
       <c r="N26">
         <v>3000</v>
       </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27">
-        <v>10003001</v>
+        <v>10001002</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="7">
+        <v>380</v>
+      </c>
+      <c r="E27" s="8">
         <v>40</v>
       </c>
-      <c r="D27" s="7">
-        <v>180</v>
-      </c>
-      <c r="E27" s="8">
-        <v>50</v>
-      </c>
       <c r="F27" s="8">
-        <v>200</v>
+        <v>99999999</v>
       </c>
       <c r="G27" s="8">
         <v>125</v>
       </c>
       <c r="H27" s="9">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="I27" s="9">
-        <v>1250</v>
+        <v>4000</v>
       </c>
       <c r="J27">
-        <v>1500</v>
+        <v>7000</v>
       </c>
       <c r="K27">
         <v>1000</v>
@@ -2070,31 +2085,31 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28">
-        <v>10003002</v>
+        <v>10001003</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D28" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F28" s="8">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="G28" s="8">
         <v>125</v>
       </c>
       <c r="H28" s="9">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I28" s="9">
-        <v>1250</v>
+        <v>6000</v>
       </c>
       <c r="J28">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="K28">
         <v>1000</v>
@@ -2114,7 +2129,7 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="6"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2126,7 +2141,7 @@
     </row>
     <row r="30" spans="3:14">
       <c r="C30" s="6"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2136,28 +2151,92 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="3:14">
-      <c r="C31" s="6"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+    <row r="31" spans="2:15">
+      <c r="B31">
+        <v>10003001</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7">
+        <v>180</v>
+      </c>
+      <c r="E31" s="8">
+        <v>50</v>
+      </c>
+      <c r="F31" s="8">
+        <v>200</v>
+      </c>
+      <c r="G31" s="8">
+        <v>125</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1200</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1250</v>
+      </c>
+      <c r="J31">
+        <v>1500</v>
+      </c>
+      <c r="K31">
+        <v>1000</v>
+      </c>
+      <c r="L31">
+        <v>1000</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
       <c r="N31">
         <v>3000</v>
       </c>
-    </row>
-    <row r="32" spans="3:14">
-      <c r="C32" s="6"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32">
+        <v>10003002</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G32" s="8">
+        <v>125</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1250</v>
+      </c>
+      <c r="J32">
+        <v>5000</v>
+      </c>
+      <c r="K32">
+        <v>1000</v>
+      </c>
+      <c r="L32">
+        <v>1000</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
       <c r="N32">
         <v>3000</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:14">
@@ -2184,51 +2263,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
-      <c r="B35">
-        <v>10003031</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="7">
-        <v>500</v>
-      </c>
-      <c r="E35" s="8">
-        <v>100</v>
-      </c>
-      <c r="F35" s="8">
-        <v>50000</v>
-      </c>
-      <c r="G35" s="8">
-        <v>125</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J35">
-        <v>1500</v>
-      </c>
-      <c r="K35">
-        <v>1000</v>
-      </c>
-      <c r="L35">
-        <v>1000</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
+    <row r="35" spans="3:14">
+      <c r="C35" s="6"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="N35">
         <v>3000</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9">
+    </row>
+    <row r="36" spans="3:14">
       <c r="C36" s="6"/>
       <c r="D36" s="10"/>
       <c r="E36" s="8"/>
@@ -2236,8 +2283,11 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="3:9">
+      <c r="N36">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
       <c r="C37" s="6"/>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -2245,8 +2295,11 @@
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="3:9">
+      <c r="N37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
       <c r="C38" s="6"/>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
@@ -2254,15 +2307,53 @@
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="3:9">
-      <c r="C39" s="6"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="N38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39">
+        <v>10003031</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="7">
+        <v>500</v>
+      </c>
+      <c r="E39" s="8">
+        <v>100</v>
+      </c>
+      <c r="F39" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G39" s="8">
+        <v>125</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J39">
+        <v>1500</v>
+      </c>
+      <c r="K39">
+        <v>1000</v>
+      </c>
+      <c r="L39">
+        <v>1000</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>3000</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="6"/>
@@ -2353,6 +2444,42 @@
       <c r="G49" s="8"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="6"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="6"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="6"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="6"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -1176,11 +1176,11 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="B1" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="D3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1413,7 +1413,7 @@
         <v>3000</v>
       </c>
       <c r="J7">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1466,7 +1466,7 @@
         <v>3000</v>
       </c>
       <c r="J8">
-        <v>5500</v>
+        <v>1500</v>
       </c>
       <c r="K8">
         <v>1000</v>
@@ -1764,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="8">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>850</v>
       </c>
       <c r="I18" s="9">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J18">
         <v>1500</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="22590" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>承灵</t>
+  </si>
+  <si>
+    <t>林清远</t>
+  </si>
+  <si>
+    <t>叶红衣</t>
   </si>
   <si>
     <t>怪物1 近战</t>
@@ -1176,11 +1182,11 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="D3" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="D3" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1401,7 +1407,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G7" s="8">
         <v>20</v>
@@ -1702,23 +1708,111 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10007</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7">
+        <v>100</v>
+      </c>
+      <c r="E13" s="8">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>20</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J13">
+        <v>1500</v>
+      </c>
+      <c r="K13">
+        <v>1000</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2000</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1000</v>
+      </c>
+      <c r="Q13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10008</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J14">
+        <v>1500</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2000</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1000</v>
+      </c>
+      <c r="Q14">
+        <v>1200</v>
+      </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="6"/>
@@ -1755,10 +1849,10 @@
         <v>20001</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E18" s="8">
         <v>10</v>
@@ -1817,7 +1911,7 @@
         <v>20501</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
         <v>60</v>
@@ -1870,7 +1964,7 @@
         <v>20502</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7">
         <v>200</v>
@@ -1932,7 +2026,7 @@
         <v>20801</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7">
         <v>60</v>
@@ -2000,7 +2094,7 @@
         <v>10001001</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="7">
         <v>500</v>
@@ -2156,7 +2250,7 @@
         <v>10003001</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7">
         <v>180</v>
@@ -2200,7 +2294,7 @@
         <v>10003002</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7">
         <v>20</v>
@@ -2316,7 +2410,7 @@
         <v>10003031</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" s="7">
         <v>500</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22590" windowHeight="11700"/>
+    <workbookView windowWidth="17280" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,11 +1182,11 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="D3" activePane="bottomLeft"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="D3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1460,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="8">
         <v>20</v>
@@ -1513,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -1566,7 +1566,7 @@
         <v>60</v>
       </c>
       <c r="F10" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G10" s="8">
         <v>20</v>
@@ -1619,7 +1619,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G11" s="8">
         <v>20</v>
@@ -1672,7 +1672,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="8">
         <v>20</v>
@@ -1725,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G13" s="8">
         <v>20</v>
@@ -1778,7 +1778,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="8">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="8">
         <v>20</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700"/>
+    <workbookView windowWidth="16665" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16665" windowHeight="11700"/>
+    <workbookView windowWidth="18240" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -173,6 +160,21 @@
   </si>
   <si>
     <t>自爆人召唤物</t>
+  </si>
+  <si>
+    <t>灰熊 Lv1 属性</t>
+  </si>
+  <si>
+    <t>灰熊 Lv2 属性</t>
+  </si>
+  <si>
+    <t>灰熊 Lv3 属性</t>
+  </si>
+  <si>
+    <t>灰熊 Lv4 属性</t>
+  </si>
+  <si>
+    <t>灰熊 Lv5 属性</t>
   </si>
   <si>
     <t>上官唯</t>
@@ -187,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -822,14 +824,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1179,17 +1181,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="D3" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="A3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7:F14"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
@@ -1204,7 +1206,7 @@
     <col min="17" max="17" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="17" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" ht="17" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1366,31 +1368,31 @@
     <row r="4" spans="3:9">
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" ht="17" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1403,19 +1405,19 @@
       <c r="D7" s="7">
         <v>100</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>40</v>
       </c>
-      <c r="F7" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="9">
         <v>20</v>
       </c>
-      <c r="H7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="10">
         <v>3000</v>
       </c>
       <c r="J7">
@@ -1443,7 +1445,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" ht="17" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1456,19 +1458,19 @@
       <c r="D8" s="7">
         <v>100</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>40</v>
       </c>
-      <c r="F8" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="9">
         <v>20</v>
       </c>
-      <c r="H8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="10">
         <v>3000</v>
       </c>
       <c r="J8">
@@ -1496,7 +1498,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" ht="17" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1509,19 +1511,19 @@
       <c r="D9" s="7">
         <v>100</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>40</v>
       </c>
-      <c r="F9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9">
         <v>20</v>
       </c>
-      <c r="H9" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="10">
         <v>3000</v>
       </c>
       <c r="J9">
@@ -1549,7 +1551,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" ht="17" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1562,19 +1564,19 @@
       <c r="D10" s="7">
         <v>100</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>60</v>
       </c>
-      <c r="F10" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="9">
         <v>20</v>
       </c>
-      <c r="H10" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="10">
         <v>3000</v>
       </c>
       <c r="J10">
@@ -1602,7 +1604,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" ht="17" spans="1:17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1615,19 +1617,19 @@
       <c r="D11" s="7">
         <v>100</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>45</v>
       </c>
-      <c r="F11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="9">
         <v>20</v>
       </c>
-      <c r="H11" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="10">
         <v>3000</v>
       </c>
       <c r="J11">
@@ -1655,7 +1657,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" ht="17" spans="1:17">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1668,19 +1670,19 @@
       <c r="D12" s="7">
         <v>100</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>40</v>
       </c>
-      <c r="F12" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="9">
         <v>20</v>
       </c>
-      <c r="H12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="10">
         <v>3000</v>
       </c>
       <c r="J12">
@@ -1708,7 +1710,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" ht="17" spans="1:17">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1721,19 +1723,19 @@
       <c r="D13" s="7">
         <v>100</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>40</v>
       </c>
-      <c r="F13" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="9">
         <v>20</v>
       </c>
-      <c r="H13" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="10">
         <v>3000</v>
       </c>
       <c r="J13">
@@ -1761,7 +1763,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" ht="17" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1774,19 +1776,19 @@
       <c r="D14" s="7">
         <v>100</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="9">
         <v>20</v>
       </c>
-      <c r="H14" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="10">
         <v>3000</v>
       </c>
       <c r="J14">
@@ -1817,31 +1819,31 @@
     <row r="15" spans="3:9">
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" ht="17" spans="1:17">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1854,19 +1856,19 @@
       <c r="D18" s="7">
         <v>140</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>10</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>10000</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
         <v>850</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="10">
         <v>1800</v>
       </c>
       <c r="J18">
@@ -1897,13 +1899,13 @@
     <row r="19" spans="3:9">
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" ht="17" spans="1:17">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1916,19 +1918,19 @@
       <c r="D20" s="7">
         <v>60</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <v>20</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <v>5000</v>
       </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="10">
         <v>4000</v>
       </c>
       <c r="J20">
@@ -1956,7 +1958,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:17">
+    <row r="21" ht="34" spans="1:17">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1969,19 +1971,19 @@
       <c r="D21" s="7">
         <v>200</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <v>80</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>20000</v>
       </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="10">
         <v>3000</v>
       </c>
       <c r="J21">
@@ -2012,13 +2014,13 @@
     <row r="22" spans="3:9">
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" ht="17" spans="1:17">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2031,19 +2033,19 @@
       <c r="D23" s="7">
         <v>60</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <v>10</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <v>350</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="10">
         <v>4000</v>
       </c>
       <c r="J23">
@@ -2074,45 +2076,92 @@
     <row r="24" spans="3:9">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" ht="17" spans="1:17">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>28011</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="7">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9">
+        <v>20</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1800</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J25">
+        <v>1500</v>
+      </c>
+      <c r="K25">
+        <v>1000</v>
+      </c>
+      <c r="L25">
+        <v>1000</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2000</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1000</v>
+      </c>
+      <c r="Q25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:17">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
       <c r="B26">
-        <v>10001001</v>
+        <v>28012</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>500</v>
-      </c>
-      <c r="E26" s="8">
-        <v>80</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="8">
-        <v>100</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I26" s="9">
-        <v>3500</v>
+        <v>90</v>
+      </c>
+      <c r="E26" s="9">
+        <v>28</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2750</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1700</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2000</v>
       </c>
       <c r="J26">
         <v>1500</v>
@@ -2127,39 +2176,48 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="P26">
+        <v>1000</v>
+      </c>
+      <c r="Q26">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:17">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
       <c r="B27">
-        <v>10001002</v>
+        <v>28013</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7">
-        <v>380</v>
-      </c>
-      <c r="E27" s="8">
-        <v>40</v>
-      </c>
-      <c r="F27" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="G27" s="8">
-        <v>125</v>
-      </c>
-      <c r="H27" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I27" s="9">
-        <v>4000</v>
+        <v>120</v>
+      </c>
+      <c r="E27" s="9">
+        <v>36</v>
+      </c>
+      <c r="F27" s="9">
+        <v>3500</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1600</v>
+      </c>
+      <c r="I27" s="10">
+        <v>2000</v>
       </c>
       <c r="J27">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="K27">
         <v>1000</v>
@@ -2171,39 +2229,48 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="P27">
+        <v>1000</v>
+      </c>
+      <c r="Q27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:17">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
       <c r="B28">
-        <v>10001003</v>
+        <v>28014</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D28" s="7">
-        <v>10</v>
-      </c>
-      <c r="E28" s="8">
-        <v>40</v>
-      </c>
-      <c r="F28" s="8">
-        <v>500</v>
-      </c>
-      <c r="G28" s="8">
-        <v>125</v>
-      </c>
-      <c r="H28" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I28" s="9">
-        <v>6000</v>
+        <v>150</v>
+      </c>
+      <c r="E28" s="9">
+        <v>44</v>
+      </c>
+      <c r="F28" s="9">
+        <v>4250</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I28" s="10">
+        <v>2000</v>
       </c>
       <c r="J28">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="K28">
         <v>1000</v>
@@ -2215,223 +2282,325 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14">
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="P28">
+        <v>1000</v>
+      </c>
+      <c r="Q28">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:17">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28015</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="7">
+        <v>180</v>
+      </c>
+      <c r="E29" s="9">
+        <v>52</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1400</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J29">
+        <v>1500</v>
+      </c>
+      <c r="K29">
+        <v>1000</v>
+      </c>
+      <c r="L29">
+        <v>1000</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
       <c r="N29">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14">
+        <v>2000</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
+      </c>
+      <c r="Q29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="N30">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31">
-        <v>10003001</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="7">
-        <v>180</v>
-      </c>
-      <c r="E31" s="8">
-        <v>50</v>
-      </c>
-      <c r="F31" s="8">
-        <v>200</v>
-      </c>
-      <c r="G31" s="8">
-        <v>125</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1200</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1250</v>
-      </c>
-      <c r="J31">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" ht="17" spans="2:15">
+      <c r="B33">
+        <v>10001001</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="7">
+        <v>500</v>
+      </c>
+      <c r="E33" s="9">
+        <v>80</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="9">
+        <v>100</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1400</v>
+      </c>
+      <c r="I33" s="10">
+        <v>3500</v>
+      </c>
+      <c r="J33">
         <v>1500</v>
       </c>
-      <c r="K31">
-        <v>1000</v>
-      </c>
-      <c r="L31">
-        <v>1000</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>3000</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32">
-        <v>10003002</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="7">
-        <v>20</v>
-      </c>
-      <c r="E32" s="8">
-        <v>50</v>
-      </c>
-      <c r="F32" s="8">
-        <v>20000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>125</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1250</v>
-      </c>
-      <c r="J32">
-        <v>5000</v>
-      </c>
-      <c r="K32">
-        <v>1000</v>
-      </c>
-      <c r="L32">
-        <v>1000</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>3000</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14">
-      <c r="C33" s="6"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="K33">
+        <v>1000</v>
+      </c>
+      <c r="L33">
+        <v>1000</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
       <c r="N33">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="3:14">
-      <c r="C34" s="6"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="2:15">
+      <c r="B34">
+        <v>10001002</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="7">
+        <v>380</v>
+      </c>
+      <c r="E34" s="9">
+        <v>40</v>
+      </c>
+      <c r="F34" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="G34" s="9">
+        <v>125</v>
+      </c>
+      <c r="H34" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>4000</v>
+      </c>
+      <c r="J34">
+        <v>7000</v>
+      </c>
+      <c r="K34">
+        <v>1000</v>
+      </c>
+      <c r="L34">
+        <v>1000</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
       <c r="N34">
         <v>3000</v>
       </c>
-    </row>
-    <row r="35" spans="3:14">
-      <c r="C35" s="6"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="17" spans="2:15">
+      <c r="B35">
+        <v>10001003</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="7">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9">
+        <v>40</v>
+      </c>
+      <c r="F35" s="9">
+        <v>500</v>
+      </c>
+      <c r="G35" s="9">
+        <v>125</v>
+      </c>
+      <c r="H35" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>6000</v>
+      </c>
+      <c r="J35">
+        <v>7000</v>
+      </c>
+      <c r="K35">
+        <v>1000</v>
+      </c>
+      <c r="L35">
+        <v>1000</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="N35">
         <v>3000</v>
       </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="3:14">
       <c r="C36" s="6"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
       <c r="N36">
         <v>3000</v>
       </c>
     </row>
     <row r="37" spans="3:14">
       <c r="C37" s="6"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
       <c r="N37">
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="3:14">
-      <c r="C38" s="6"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+    <row r="38" ht="17" spans="2:15">
+      <c r="B38">
+        <v>10003001</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="7">
+        <v>180</v>
+      </c>
+      <c r="E38" s="9">
+        <v>50</v>
+      </c>
+      <c r="F38" s="9">
+        <v>200</v>
+      </c>
+      <c r="G38" s="9">
+        <v>125</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1200</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1250</v>
+      </c>
+      <c r="J38">
+        <v>1500</v>
+      </c>
+      <c r="K38">
+        <v>1000</v>
+      </c>
+      <c r="L38">
+        <v>1000</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="N38">
         <v>3000</v>
       </c>
-    </row>
-    <row r="39" spans="2:15">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="17" spans="2:15">
       <c r="B39">
-        <v>10003031</v>
+        <v>10003002</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="7">
+        <v>20</v>
+      </c>
+      <c r="E39" s="9">
         <v>50</v>
       </c>
-      <c r="D39" s="7">
-        <v>500</v>
-      </c>
-      <c r="E39" s="8">
-        <v>100</v>
-      </c>
-      <c r="F39" s="8">
-        <v>50000</v>
-      </c>
-      <c r="G39" s="8">
+      <c r="F39" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G39" s="9">
         <v>125</v>
       </c>
-      <c r="H39" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="9">
-        <v>3000</v>
+      <c r="H39" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1250</v>
       </c>
       <c r="J39">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="K39">
         <v>1000</v>
@@ -2449,131 +2618,247 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="3:14">
       <c r="C40" s="6"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="3:9">
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="N40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14">
       <c r="C41" s="6"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="3:9">
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="N41">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14">
       <c r="C42" s="6"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="3:9">
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="N42">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14">
       <c r="C43" s="6"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="3:9">
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="N43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14">
       <c r="C44" s="6"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="3:9">
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="N44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14">
       <c r="C45" s="6"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="3:9">
-      <c r="C46" s="6"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="N45">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" ht="17" spans="2:15">
+      <c r="B46">
+        <v>10003031</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="7">
+        <v>500</v>
+      </c>
+      <c r="E46" s="9">
+        <v>100</v>
+      </c>
+      <c r="F46" s="9">
+        <v>50000</v>
+      </c>
+      <c r="G46" s="9">
+        <v>125</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="10">
+        <v>3000</v>
+      </c>
+      <c r="J46">
+        <v>1500</v>
+      </c>
+      <c r="K46">
+        <v>1000</v>
+      </c>
+      <c r="L46">
+        <v>1000</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3000</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="6"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="6"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="6"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="6"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="6"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="6"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="6"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="6"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="6"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="6"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="6"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="6"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="6"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="6"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2591,7 +2876,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2608,7 +2893,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18240" windowHeight="18120"/>
+    <workbookView windowWidth="16260" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -189,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -824,14 +837,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,14 +1197,14 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="A3" activePane="bottomRight"/>
+      <pane xSplit="5610" ySplit="2715" topLeftCell="C3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25:F29"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
@@ -1206,7 +1219,7 @@
     <col min="17" max="17" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:17">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:17">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1368,31 +1381,31 @@
     <row r="4" spans="3:9">
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" ht="17" spans="1:17">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1405,19 +1418,19 @@
       <c r="D7" s="7">
         <v>100</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="8">
         <v>20</v>
       </c>
-      <c r="H7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="9">
         <v>3000</v>
       </c>
       <c r="J7">
@@ -1445,7 +1458,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" ht="17" spans="1:17">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1458,19 +1471,19 @@
       <c r="D8" s="7">
         <v>100</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>40</v>
       </c>
-      <c r="F8" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="8">
         <v>20</v>
       </c>
-      <c r="H8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="9">
         <v>3000</v>
       </c>
       <c r="J8">
@@ -1498,7 +1511,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="1:17">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1511,19 +1524,19 @@
       <c r="D9" s="7">
         <v>100</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>40</v>
       </c>
-      <c r="F9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="H9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="9">
         <v>3000</v>
       </c>
       <c r="J9">
@@ -1551,7 +1564,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:17">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1564,19 +1577,19 @@
       <c r="D10" s="7">
         <v>100</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>60</v>
       </c>
-      <c r="F10" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="H10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="H10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="9">
         <v>3000</v>
       </c>
       <c r="J10">
@@ -1604,7 +1617,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" ht="17" spans="1:17">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1617,19 +1630,19 @@
       <c r="D11" s="7">
         <v>100</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>45</v>
       </c>
-      <c r="F11" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="8">
         <v>20</v>
       </c>
-      <c r="H11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="H11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="9">
         <v>3000</v>
       </c>
       <c r="J11">
@@ -1657,7 +1670,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="1:17">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1670,19 +1683,19 @@
       <c r="D12" s="7">
         <v>100</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>40</v>
       </c>
-      <c r="F12" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="8">
         <v>20</v>
       </c>
-      <c r="H12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="H12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="9">
         <v>3000</v>
       </c>
       <c r="J12">
@@ -1710,7 +1723,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" ht="17" spans="1:17">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1723,19 +1736,19 @@
       <c r="D13" s="7">
         <v>100</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>40</v>
       </c>
-      <c r="F13" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="H13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="9">
         <v>3000</v>
       </c>
       <c r="J13">
@@ -1763,7 +1776,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" ht="17" spans="1:17">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1776,19 +1789,19 @@
       <c r="D14" s="7">
         <v>100</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>40</v>
       </c>
-      <c r="F14" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="8">
         <v>20</v>
       </c>
-      <c r="H14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="H14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="9">
         <v>3000</v>
       </c>
       <c r="J14">
@@ -1819,31 +1832,31 @@
     <row r="15" spans="3:9">
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" ht="17" spans="1:17">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1854,21 +1867,21 @@
         <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>140</v>
-      </c>
-      <c r="E18" s="9">
         <v>10</v>
       </c>
-      <c r="F18" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>150</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
         <v>850</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>1800</v>
       </c>
       <c r="J18">
@@ -1899,13 +1912,13 @@
     <row r="19" spans="3:9">
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" ht="17" spans="1:17">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1918,19 +1931,19 @@
       <c r="D20" s="7">
         <v>60</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>20</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>5000</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="10">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="9">
         <v>4000</v>
       </c>
       <c r="J20">
@@ -1958,7 +1971,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" ht="34" spans="1:17">
+    <row r="21" ht="27" spans="1:17">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1971,19 +1984,19 @@
       <c r="D21" s="7">
         <v>200</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>80</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>20000</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="9">
         <v>3000</v>
       </c>
       <c r="J21">
@@ -2014,13 +2027,13 @@
     <row r="22" spans="3:9">
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" ht="17" spans="1:17">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2033,19 +2046,19 @@
       <c r="D23" s="7">
         <v>60</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>10</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>350</v>
       </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="9">
         <v>4000</v>
       </c>
       <c r="J23">
@@ -2076,13 +2089,13 @@
     <row r="24" spans="3:9">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" ht="17" spans="1:17">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2095,19 +2108,19 @@
       <c r="D25" s="7">
         <v>60</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>20</v>
       </c>
-      <c r="F25" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="F25" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
         <v>1800</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>2000</v>
       </c>
       <c r="J25">
@@ -2135,7 +2148,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:17">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2148,19 +2161,19 @@
       <c r="D26" s="7">
         <v>90</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>28</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>2750</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
         <v>1700</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>2000</v>
       </c>
       <c r="J26">
@@ -2188,7 +2201,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="1:17">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2201,19 +2214,19 @@
       <c r="D27" s="7">
         <v>120</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>36</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>3500</v>
       </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
         <v>1600</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>2000</v>
       </c>
       <c r="J27">
@@ -2241,7 +2254,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:17">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2254,19 +2267,19 @@
       <c r="D28" s="7">
         <v>150</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>44</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>4250</v>
       </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
         <v>1500</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>2000</v>
       </c>
       <c r="J28">
@@ -2294,7 +2307,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:17">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2307,19 +2320,19 @@
       <c r="D29" s="7">
         <v>180</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>52</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>5000</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
         <v>1400</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>2000</v>
       </c>
       <c r="J29">
@@ -2350,31 +2363,31 @@
     <row r="30" spans="3:9">
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" ht="17" spans="2:15">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:15">
       <c r="B33">
         <v>10001001</v>
       </c>
@@ -2384,19 +2397,19 @@
       <c r="D33" s="7">
         <v>500</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>80</v>
       </c>
-      <c r="F33" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="8">
         <v>100</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>1400</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>3500</v>
       </c>
       <c r="J33">
@@ -2418,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="17" spans="2:15">
+    <row r="34" spans="2:15">
       <c r="B34">
         <v>10001002</v>
       </c>
@@ -2428,19 +2441,19 @@
       <c r="D34" s="7">
         <v>380</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>40</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>99999999</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>125</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>3000</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>4000</v>
       </c>
       <c r="J34">
@@ -2462,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="2:15">
+    <row r="35" spans="2:15">
       <c r="B35">
         <v>10001003</v>
       </c>
@@ -2472,19 +2485,19 @@
       <c r="D35" s="7">
         <v>10</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>40</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>500</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>125</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>3000</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>6000</v>
       </c>
       <c r="J35">
@@ -2509,11 +2522,11 @@
     <row r="36" spans="3:14">
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="N36">
         <v>3000</v>
       </c>
@@ -2521,16 +2534,16 @@
     <row r="37" spans="3:14">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="N37">
         <v>3000</v>
       </c>
     </row>
-    <row r="38" ht="17" spans="2:15">
+    <row r="38" spans="2:15">
       <c r="B38">
         <v>10003001</v>
       </c>
@@ -2540,19 +2553,19 @@
       <c r="D38" s="7">
         <v>180</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>50</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>200</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>125</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>1200</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>1250</v>
       </c>
       <c r="J38">
@@ -2574,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="17" spans="2:15">
+    <row r="39" spans="2:15">
       <c r="B39">
         <v>10003002</v>
       </c>
@@ -2584,19 +2597,19 @@
       <c r="D39" s="7">
         <v>20</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>50</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>20000</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>125</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>1500</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>1250</v>
       </c>
       <c r="J39">
@@ -2620,77 +2633,77 @@
     </row>
     <row r="40" spans="3:14">
       <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="N40">
         <v>3000</v>
       </c>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="N41">
         <v>3000</v>
       </c>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="N42">
         <v>3000</v>
       </c>
     </row>
     <row r="43" spans="3:14">
       <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="N43">
         <v>3000</v>
       </c>
     </row>
     <row r="44" spans="3:14">
       <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="N44">
         <v>3000</v>
       </c>
     </row>
     <row r="45" spans="3:14">
       <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="N45">
         <v>3000</v>
       </c>
     </row>
-    <row r="46" ht="17" spans="2:15">
+    <row r="46" spans="2:15">
       <c r="B46">
         <v>10003031</v>
       </c>
@@ -2700,19 +2713,19 @@
       <c r="D46" s="7">
         <v>500</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>100</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>50000</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>125</v>
       </c>
-      <c r="H46" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="10">
+      <c r="H46" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="9">
         <v>3000</v>
       </c>
       <c r="J46">
@@ -2736,129 +2749,129 @@
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="6"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="6"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="6"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="6"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="6"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="6"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="6"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="6"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="6"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="6"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="6"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="6"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="6"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="6"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2876,7 +2889,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2893,7 +2906,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11700"/>
+    <workbookView windowWidth="17055" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1416,13 +1416,13 @@
         <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="8">
         <v>40</v>
       </c>
       <c r="F7" s="8">
-        <v>2000</v>
+        <v>20000000</v>
       </c>
       <c r="G7" s="8">
         <v>20</v>
@@ -1867,13 +1867,13 @@
         <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17055" windowHeight="11700"/>
+    <workbookView windowWidth="24900" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -164,6 +151,12 @@
   </si>
   <si>
     <t>怪物1 近战</t>
+  </si>
+  <si>
+    <t>怪物2 远战</t>
+  </si>
+  <si>
+    <t>怪物 boss 近战</t>
   </si>
   <si>
     <t>承灵 q 召唤物</t>
@@ -202,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -837,14 +830,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1194,17 +1187,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="C3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5610" ySplit="2715" topLeftCell="C1" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
@@ -1219,7 +1212,7 @@
     <col min="17" max="17" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="17" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" ht="17" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1381,31 +1374,31 @@
     <row r="4" spans="3:9">
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" ht="17" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1418,19 +1411,19 @@
       <c r="D7" s="7">
         <v>2000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>40</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>20000000</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>20</v>
       </c>
-      <c r="H7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="10">
         <v>3000</v>
       </c>
       <c r="J7">
@@ -1458,7 +1451,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" ht="17" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1471,19 +1464,19 @@
       <c r="D8" s="7">
         <v>100</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>40</v>
       </c>
-      <c r="F8" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="9">
         <v>20</v>
       </c>
-      <c r="H8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="10">
         <v>3000</v>
       </c>
       <c r="J8">
@@ -1511,7 +1504,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" ht="17" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1524,19 +1517,19 @@
       <c r="D9" s="7">
         <v>100</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>40</v>
       </c>
-      <c r="F9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9">
         <v>20</v>
       </c>
-      <c r="H9" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="H9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="10">
         <v>3000</v>
       </c>
       <c r="J9">
@@ -1564,7 +1557,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" ht="17" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1577,19 +1570,19 @@
       <c r="D10" s="7">
         <v>100</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>60</v>
       </c>
-      <c r="F10" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="9">
         <v>20</v>
       </c>
-      <c r="H10" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="H10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="10">
         <v>3000</v>
       </c>
       <c r="J10">
@@ -1617,7 +1610,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" ht="17" spans="1:17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1630,19 +1623,19 @@
       <c r="D11" s="7">
         <v>100</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>45</v>
       </c>
-      <c r="F11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="9">
         <v>20</v>
       </c>
-      <c r="H11" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="H11" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="10">
         <v>3000</v>
       </c>
       <c r="J11">
@@ -1670,7 +1663,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" ht="17" spans="1:17">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1683,19 +1676,19 @@
       <c r="D12" s="7">
         <v>100</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>40</v>
       </c>
-      <c r="F12" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="9">
         <v>20</v>
       </c>
-      <c r="H12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="H12" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="10">
         <v>3000</v>
       </c>
       <c r="J12">
@@ -1723,7 +1716,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" ht="17" spans="1:17">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1736,19 +1729,19 @@
       <c r="D13" s="7">
         <v>100</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>40</v>
       </c>
-      <c r="F13" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="9">
         <v>20</v>
       </c>
-      <c r="H13" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="H13" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="10">
         <v>3000</v>
       </c>
       <c r="J13">
@@ -1776,7 +1769,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" ht="17" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1789,19 +1782,19 @@
       <c r="D14" s="7">
         <v>100</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="9">
         <v>20</v>
       </c>
-      <c r="H14" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="10">
         <v>3000</v>
       </c>
       <c r="J14">
@@ -1832,31 +1825,31 @@
     <row r="15" spans="3:9">
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" ht="17" spans="1:17">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1867,21 +1860,21 @@
         <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>6000</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
+        <v>100</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>600</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
         <v>850</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="10">
         <v>1800</v>
       </c>
       <c r="J18">
@@ -1909,42 +1902,86 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:17">
+    <row r="19" ht="17" spans="1:17">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>20002</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>600</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>850</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1800</v>
+      </c>
+      <c r="J19">
+        <v>5000</v>
+      </c>
+      <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1000</v>
+      </c>
+      <c r="Q19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" ht="34" spans="1:17">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>20501</v>
+        <v>20003</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7">
-        <v>60</v>
-      </c>
-      <c r="E20" s="8">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="9">
-        <v>4000</v>
+        <v>600</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>850</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1800</v>
       </c>
       <c r="J20">
         <v>1500</v>
@@ -1971,157 +2008,69 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:17">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>20502</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="7">
-        <v>200</v>
-      </c>
-      <c r="E21" s="8">
-        <v>80</v>
-      </c>
-      <c r="F21" s="8">
-        <v>20000</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J21">
-        <v>1500</v>
-      </c>
-      <c r="K21">
-        <v>1000</v>
-      </c>
-      <c r="L21">
-        <v>1000</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>2000</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>1000</v>
-      </c>
-      <c r="Q21">
-        <v>1200</v>
-      </c>
+    <row r="21" spans="3:9">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>20801</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7">
-        <v>60</v>
-      </c>
-      <c r="E23" s="8">
-        <v>10</v>
-      </c>
-      <c r="F23" s="8">
-        <v>350</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="9">
-        <v>4000</v>
-      </c>
-      <c r="J23">
-        <v>1500</v>
-      </c>
-      <c r="K23">
-        <v>1000</v>
-      </c>
-      <c r="L23">
-        <v>1000</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>2000</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>1000</v>
-      </c>
-      <c r="Q23">
-        <v>1200</v>
-      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" ht="17" spans="1:17">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28011</v>
+        <v>20501</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
         <v>60</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <v>20</v>
       </c>
-      <c r="F25" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1800</v>
-      </c>
-      <c r="I25" s="9">
-        <v>2000</v>
+      <c r="F25" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="10">
+        <v>4000</v>
       </c>
       <c r="J25">
         <v>1500</v>
@@ -2145,36 +2094,36 @@
         <v>1000</v>
       </c>
       <c r="Q25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" ht="34" spans="1:17">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26">
-        <v>28012</v>
+        <v>20502</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="7">
-        <v>90</v>
-      </c>
-      <c r="E26" s="8">
-        <v>28</v>
-      </c>
-      <c r="F26" s="8">
-        <v>2750</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1700</v>
-      </c>
-      <c r="I26" s="9">
-        <v>2000</v>
+        <v>200</v>
+      </c>
+      <c r="E26" s="9">
+        <v>80</v>
+      </c>
+      <c r="F26" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3000</v>
       </c>
       <c r="J26">
         <v>1500</v>
@@ -2198,89 +2147,45 @@
         <v>1000</v>
       </c>
       <c r="Q26">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>28013</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="7">
-        <v>120</v>
-      </c>
-      <c r="E27" s="8">
-        <v>36</v>
-      </c>
-      <c r="F27" s="8">
-        <v>3500</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1600</v>
-      </c>
-      <c r="I27" s="9">
-        <v>2000</v>
-      </c>
-      <c r="J27">
-        <v>1500</v>
-      </c>
-      <c r="K27">
-        <v>1000</v>
-      </c>
-      <c r="L27">
-        <v>1000</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>2000</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>1000</v>
-      </c>
-      <c r="Q27">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" ht="17" spans="1:17">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>28014</v>
+        <v>20801</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7">
-        <v>150</v>
-      </c>
-      <c r="E28" s="8">
-        <v>44</v>
-      </c>
-      <c r="F28" s="8">
-        <v>4250</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I28" s="9">
-        <v>2000</v>
+        <v>60</v>
+      </c>
+      <c r="E28" s="9">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9">
+        <v>350</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="10">
+        <v>4000</v>
       </c>
       <c r="J28">
         <v>1500</v>
@@ -2304,113 +2209,204 @@
         <v>1000</v>
       </c>
       <c r="Q28">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>28015</v>
-      </c>
-      <c r="C29" s="6" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" ht="17" spans="1:17">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>28011</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7">
+        <v>60</v>
+      </c>
+      <c r="E30" s="9">
+        <v>20</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1800</v>
+      </c>
+      <c r="I30" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J30">
+        <v>1500</v>
+      </c>
+      <c r="K30">
+        <v>1000</v>
+      </c>
+      <c r="L30">
+        <v>1000</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2000</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1000</v>
+      </c>
+      <c r="Q30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:17">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>28012</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="7">
+        <v>90</v>
+      </c>
+      <c r="E31" s="9">
+        <v>28</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2750</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1700</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J31">
+        <v>1500</v>
+      </c>
+      <c r="K31">
+        <v>1000</v>
+      </c>
+      <c r="L31">
+        <v>1000</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2000</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1000</v>
+      </c>
+      <c r="Q31">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:17">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>28013</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="7">
-        <v>180</v>
-      </c>
-      <c r="E29" s="8">
-        <v>52</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="D32" s="7">
+        <v>120</v>
+      </c>
+      <c r="E32" s="9">
+        <v>36</v>
+      </c>
+      <c r="F32" s="9">
+        <v>3500</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1600</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2000</v>
+      </c>
+      <c r="J32">
+        <v>1500</v>
+      </c>
+      <c r="K32">
+        <v>1000</v>
+      </c>
+      <c r="L32">
+        <v>1000</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2000</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>1000</v>
+      </c>
+      <c r="Q32">
         <v>5000</v>
       </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I29" s="9">
-        <v>2000</v>
-      </c>
-      <c r="J29">
-        <v>1500</v>
-      </c>
-      <c r="K29">
-        <v>1000</v>
-      </c>
-      <c r="L29">
-        <v>1000</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>2000</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>1000</v>
-      </c>
-      <c r="Q29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:15">
+    </row>
+    <row r="33" ht="17" spans="1:17">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
       <c r="B33">
-        <v>10001001</v>
+        <v>28014</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="7">
-        <v>500</v>
-      </c>
-      <c r="E33" s="8">
-        <v>80</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="8">
-        <v>100</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I33" s="9">
-        <v>3500</v>
+        <v>150</v>
+      </c>
+      <c r="E33" s="9">
+        <v>44</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4250</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I33" s="10">
+        <v>2000</v>
       </c>
       <c r="J33">
         <v>1500</v>
@@ -2425,39 +2421,48 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="P33">
+        <v>1000</v>
+      </c>
+      <c r="Q33">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="34" ht="17" spans="1:17">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
       <c r="B34">
-        <v>10001002</v>
+        <v>28015</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D34" s="7">
-        <v>380</v>
-      </c>
-      <c r="E34" s="8">
-        <v>40</v>
-      </c>
-      <c r="F34" s="8">
-        <v>99999999</v>
-      </c>
-      <c r="G34" s="8">
-        <v>125</v>
-      </c>
-      <c r="H34" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I34" s="9">
-        <v>4000</v>
+        <v>180</v>
+      </c>
+      <c r="E34" s="9">
+        <v>52</v>
+      </c>
+      <c r="F34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1400</v>
+      </c>
+      <c r="I34" s="10">
+        <v>2000</v>
       </c>
       <c r="J34">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="K34">
         <v>1000</v>
@@ -2469,104 +2474,69 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35">
-        <v>10001003</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="7">
-        <v>10</v>
-      </c>
-      <c r="E35" s="8">
-        <v>40</v>
-      </c>
-      <c r="F35" s="8">
-        <v>500</v>
-      </c>
-      <c r="G35" s="8">
-        <v>125</v>
-      </c>
-      <c r="H35" s="9">
-        <v>3000</v>
-      </c>
-      <c r="I35" s="9">
-        <v>6000</v>
-      </c>
-      <c r="J35">
-        <v>7000</v>
-      </c>
-      <c r="K35">
-        <v>1000</v>
-      </c>
-      <c r="L35">
-        <v>1000</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>3000</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14">
+      <c r="P34">
+        <v>1000</v>
+      </c>
+      <c r="Q34">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="3:9">
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="N36">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="3:9">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="N37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" ht="17" spans="2:15">
       <c r="B38">
-        <v>10003001</v>
+        <v>10001001</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D38" s="7">
-        <v>180</v>
-      </c>
-      <c r="E38" s="8">
-        <v>50</v>
-      </c>
-      <c r="F38" s="8">
-        <v>200</v>
-      </c>
-      <c r="G38" s="8">
-        <v>125</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1200</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1250</v>
+        <v>500</v>
+      </c>
+      <c r="E38" s="9">
+        <v>80</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="9">
+        <v>100</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1400</v>
+      </c>
+      <c r="I38" s="10">
+        <v>3500</v>
       </c>
       <c r="J38">
         <v>1500</v>
@@ -2587,33 +2557,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" ht="17" spans="2:15">
       <c r="B39">
-        <v>10003002</v>
+        <v>10001002</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D39" s="7">
-        <v>20</v>
-      </c>
-      <c r="E39" s="8">
-        <v>50</v>
-      </c>
-      <c r="F39" s="8">
-        <v>20000</v>
-      </c>
-      <c r="G39" s="8">
+        <v>380</v>
+      </c>
+      <c r="E39" s="9">
+        <v>40</v>
+      </c>
+      <c r="F39" s="9">
+        <v>99999999</v>
+      </c>
+      <c r="G39" s="9">
         <v>125</v>
       </c>
-      <c r="H39" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I39" s="9">
-        <v>1250</v>
+      <c r="H39" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I39" s="10">
+        <v>4000</v>
       </c>
       <c r="J39">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="K39">
         <v>1000</v>
@@ -2631,247 +2601,403 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:14">
-      <c r="C40" s="6"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+    <row r="40" ht="17" spans="2:15">
+      <c r="B40">
+        <v>10001003</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9">
+        <v>40</v>
+      </c>
+      <c r="F40" s="9">
+        <v>500</v>
+      </c>
+      <c r="G40" s="9">
+        <v>125</v>
+      </c>
+      <c r="H40" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I40" s="10">
+        <v>6000</v>
+      </c>
+      <c r="J40">
+        <v>7000</v>
+      </c>
+      <c r="K40">
+        <v>1000</v>
+      </c>
+      <c r="L40">
+        <v>1000</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
       <c r="N40">
         <v>3000</v>
       </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:14">
       <c r="C41" s="6"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
       <c r="N41">
         <v>3000</v>
       </c>
     </row>
     <row r="42" spans="3:14">
       <c r="C42" s="6"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
       <c r="N42">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" spans="3:14">
-      <c r="C43" s="6"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+    <row r="43" ht="17" spans="2:15">
+      <c r="B43">
+        <v>10003001</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="7">
+        <v>180</v>
+      </c>
+      <c r="E43" s="9">
+        <v>50</v>
+      </c>
+      <c r="F43" s="9">
+        <v>200</v>
+      </c>
+      <c r="G43" s="9">
+        <v>125</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1200</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1250</v>
+      </c>
+      <c r="J43">
+        <v>1500</v>
+      </c>
+      <c r="K43">
+        <v>1000</v>
+      </c>
+      <c r="L43">
+        <v>1000</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
       <c r="N43">
         <v>3000</v>
       </c>
-    </row>
-    <row r="44" spans="3:14">
-      <c r="C44" s="6"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="2:15">
+      <c r="B44">
+        <v>10003002</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="7">
+        <v>20</v>
+      </c>
+      <c r="E44" s="9">
+        <v>50</v>
+      </c>
+      <c r="F44" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G44" s="9">
+        <v>125</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1500</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1250</v>
+      </c>
+      <c r="J44">
+        <v>5000</v>
+      </c>
+      <c r="K44">
+        <v>1000</v>
+      </c>
+      <c r="L44">
+        <v>1000</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
       <c r="N44">
         <v>3000</v>
       </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="3:14">
       <c r="C45" s="6"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
       <c r="N45">
         <v>3000</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
-      <c r="B46">
-        <v>10003031</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="7">
-        <v>500</v>
-      </c>
-      <c r="E46" s="8">
-        <v>100</v>
-      </c>
-      <c r="F46" s="8">
-        <v>50000</v>
-      </c>
-      <c r="G46" s="8">
-        <v>125</v>
-      </c>
-      <c r="H46" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="9">
-        <v>3000</v>
-      </c>
-      <c r="J46">
-        <v>1500</v>
-      </c>
-      <c r="K46">
-        <v>1000</v>
-      </c>
-      <c r="L46">
-        <v>1000</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
+    <row r="46" spans="3:14">
+      <c r="C46" s="6"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
       <c r="N46">
         <v>3000</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9">
+    </row>
+    <row r="47" spans="3:14">
       <c r="C47" s="6"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="3:9">
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="N47">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
       <c r="C48" s="6"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="3:9">
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="N48">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14">
       <c r="C49" s="6"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="3:9">
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="N49">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14">
       <c r="C50" s="6"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="3:9">
-      <c r="C51" s="6"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="N50">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" ht="17" spans="2:15">
+      <c r="B51">
+        <v>10003031</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="7">
+        <v>500</v>
+      </c>
+      <c r="E51" s="9">
+        <v>100</v>
+      </c>
+      <c r="F51" s="9">
+        <v>50000</v>
+      </c>
+      <c r="G51" s="9">
+        <v>125</v>
+      </c>
+      <c r="H51" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="10">
+        <v>3000</v>
+      </c>
+      <c r="J51">
+        <v>1500</v>
+      </c>
+      <c r="K51">
+        <v>1000</v>
+      </c>
+      <c r="L51">
+        <v>1000</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3000</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="6"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="6"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="6"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="6"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="6"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="6"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="6"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="6"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="6"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="6"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="6"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="6"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="6"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="6"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,7 +3015,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2906,7 +3032,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/EntityAttrBase.xlsx
+++ b/data_config/EntityAttrBase.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24900" windowHeight="15780"/>
+    <workbookView windowWidth="16665" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -124,6 +137,9 @@
   </si>
   <si>
     <t>生命恢复速度（*1000）每秒</t>
+  </si>
+  <si>
+    <t>标准人</t>
   </si>
   <si>
     <t>隐墨</t>
@@ -195,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -830,14 +846,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1189,17 +1205,17 @@
   <sheetPr/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5610" ySplit="2715" topLeftCell="C1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3900" ySplit="2715" topLeftCell="A16" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="10.375"/>
@@ -1212,7 +1228,7 @@
     <col min="17" max="17" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:17">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:17">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1374,31 +1390,72 @@
     <row r="4" spans="3:9">
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100</v>
+      </c>
+      <c r="E5" s="8">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8">
+        <v>500</v>
+      </c>
+      <c r="G5" s="8">
+        <v>250</v>
+      </c>
+      <c r="H5" s="9">
+        <v>700</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J5">
+        <v>1500</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1000</v>
+      </c>
+      <c r="Q5">
+        <v>4000</v>
+      </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" ht="17" spans="1:17">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1406,25 +1463,25 @@
         <v>10001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="9">
-        <v>40</v>
-      </c>
-      <c r="F7" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="G7" s="9">
+        <v>100</v>
+      </c>
+      <c r="E7" s="8">
         <v>20</v>
       </c>
-      <c r="H7" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="10">
-        <v>3000</v>
+      <c r="F7" s="8">
+        <v>600</v>
+      </c>
+      <c r="G7" s="8">
+        <v>250</v>
+      </c>
+      <c r="H7" s="9">
+        <v>700</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2500</v>
       </c>
       <c r="J7">
         <v>1500</v>
@@ -1448,10 +1505,10 @@
         <v>1000</v>
       </c>
       <c r="Q7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="1:17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1459,25 +1516,25 @@
         <v>10002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>100</v>
-      </c>
-      <c r="E8" s="9">
-        <v>40</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="9">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="10">
-        <v>3000</v>
+        <v>130</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
+        <v>450</v>
+      </c>
+      <c r="G8" s="8">
+        <v>250</v>
+      </c>
+      <c r="H8" s="9">
+        <v>750</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2800</v>
       </c>
       <c r="J8">
         <v>1500</v>
@@ -1501,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="Q8">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" ht="17" spans="1:17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1512,24 +1569,24 @@
         <v>10003</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9">
-        <v>40</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="9">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="10">
+        <v>120</v>
+      </c>
+      <c r="E9" s="8">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8">
+        <v>450</v>
+      </c>
+      <c r="G9" s="8">
+        <v>250</v>
+      </c>
+      <c r="H9" s="9">
+        <v>800</v>
+      </c>
+      <c r="I9" s="9">
         <v>3000</v>
       </c>
       <c r="J9">
@@ -1554,10 +1611,10 @@
         <v>1000</v>
       </c>
       <c r="Q9">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" ht="17" spans="1:17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1565,25 +1622,25 @@
         <v>10004</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="9">
-        <v>60</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="9">
-        <v>20</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="10">
-        <v>3000</v>
+        <v>70</v>
+      </c>
+      <c r="E10" s="8">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8">
+        <v>750</v>
+      </c>
+      <c r="G10" s="8">
+        <v>250</v>
+      </c>
+      <c r="H10" s="9">
+        <v>650</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2150</v>
       </c>
       <c r="J10">
         <v>1500</v>
@@ -1607,10 +1664,10 @@
         <v>1000</v>
       </c>
       <c r="Q10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:17">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1618,28 +1675,28 @@
         <v>10005</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="9">
-        <v>45</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="9">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8">
         <v>20</v>
       </c>
-      <c r="H11" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="10">
-        <v>3000</v>
+      <c r="F11" s="8">
+        <v>500</v>
+      </c>
+      <c r="G11" s="8">
+        <v>250</v>
+      </c>
+      <c r="H11" s="9">
+        <v>700</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2200</v>
       </c>
       <c r="J11">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="K11">
         <v>1000</v>
@@ -1660,10 +1717,10 @@
         <v>1000</v>
       </c>
       <c r="Q11">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="12" ht="17" spans="1:17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1671,25 +1728,25 @@
         <v>10006</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>100</v>
-      </c>
-      <c r="E12" s="9">
-        <v>40</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="9">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8">
         <v>20</v>
       </c>
-      <c r="H12" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="10">
-        <v>3000</v>
+      <c r="F12" s="8">
+        <v>500</v>
+      </c>
+      <c r="G12" s="8">
+        <v>250</v>
+      </c>
+      <c r="H12" s="9">
+        <v>650</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2200</v>
       </c>
       <c r="J12">
         <v>1500</v>
@@ -1713,10 +1770,10 @@
         <v>1000</v>
       </c>
       <c r="Q12">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" ht="17" spans="1:17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1724,25 +1781,25 @@
         <v>10007</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>100</v>
-      </c>
-      <c r="E13" s="9">
-        <v>40</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="9">
-        <v>20</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="10">
-        <v>3000</v>
+        <v>110</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8">
+        <v>450</v>
+      </c>
+      <c r="G13" s="8">
+        <v>250</v>
+      </c>
+      <c r="H13" s="9">
+        <v>850</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2500</v>
       </c>
       <c r="J13">
         <v>1500</v>
@@ -1766,10 +1823,10 @@
         <v>1000</v>
       </c>
       <c r="Q13">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="14" ht="17" spans="1:17">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1777,28 +1834,28 @@
         <v>10008</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>100</v>
-      </c>
-      <c r="E14" s="9">
-        <v>40</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="9">
-        <v>20</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3000</v>
+        <v>75</v>
+      </c>
+      <c r="E14" s="8">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8">
+        <v>500</v>
+      </c>
+      <c r="G14" s="8">
+        <v>250</v>
+      </c>
+      <c r="H14" s="9">
+        <v>600</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2200</v>
       </c>
       <c r="J14">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="K14">
         <v>1000</v>
@@ -1819,37 +1876,28 @@
         <v>1000</v>
       </c>
       <c r="Q14">
-        <v>1200</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" ht="17" spans="1:17">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1857,25 +1905,25 @@
         <v>20001</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>100</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>600</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>850</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1800</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8">
+        <v>400</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>650</v>
+      </c>
+      <c r="I18" s="9">
+        <v>2000</v>
       </c>
       <c r="J18">
         <v>1500</v>
@@ -1899,10 +1947,10 @@
         <v>1000</v>
       </c>
       <c r="Q18">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1910,28 +1958,28 @@
         <v>20002</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>100</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>600</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>850</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1800</v>
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>350</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>900</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2600</v>
       </c>
       <c r="J19">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="K19">
         <v>1000</v>
@@ -1952,10 +2000,10 @@
         <v>1000</v>
       </c>
       <c r="Q19">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="20" ht="34" spans="1:17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1963,25 +2011,25 @@
         <v>20003</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
-        <v>600</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>20000</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>850</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1800</v>
+        <v>2200</v>
+      </c>
+      <c r="E20" s="8">
+        <v>150</v>
+      </c>
+      <c r="F20" s="8">
+        <v>14000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1700</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3250</v>
       </c>
       <c r="J20">
         <v>1500</v>
@@ -1993,10 +2041,10 @@
         <v>1000</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="N20">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2005,46 +2053,46 @@
         <v>1000</v>
       </c>
       <c r="Q20">
-        <v>1200</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" ht="17" spans="1:17">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2052,24 +2100,24 @@
         <v>20501</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7">
         <v>60</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>20</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>5000</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="9">
         <v>4000</v>
       </c>
       <c r="J25">
@@ -2097,7 +2145,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="26" ht="34" spans="1:17">
+    <row r="26" ht="27" spans="1:17">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2105,24 +2153,24 @@
         <v>20502</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
         <v>200</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>80</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>20000</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
         <v>2000</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>3000</v>
       </c>
       <c r="J26">
@@ -2153,13 +2201,13 @@
     <row r="27" spans="3:9">
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" ht="17" spans="1:17">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2167,24 +2215,24 @@
         <v>20801</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7">
         <v>60</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>10</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>350</v>
       </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="9">
         <v>4000</v>
       </c>
       <c r="J28">
@@ -2215,13 +2263,13 @@
     <row r="29" spans="3:9">
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" ht="17" spans="1:17">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2229,24 +2277,24 @@
         <v>28011</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" s="7">
         <v>60</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>20</v>
       </c>
-      <c r="F30" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1800</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="F30" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>700</v>
+      </c>
+      <c r="I30" s="9">
         <v>2000</v>
       </c>
       <c r="J30">
@@ -2271,10 +2319,10 @@
         <v>1000</v>
       </c>
       <c r="Q30">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2282,24 +2330,24 @@
         <v>28012</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" s="7">
         <v>90</v>
       </c>
-      <c r="E31" s="9">
-        <v>28</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2750</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1700</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="E31" s="8">
+        <v>30</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>850</v>
+      </c>
+      <c r="I31" s="9">
         <v>2000</v>
       </c>
       <c r="J31">
@@ -2324,10 +2372,10 @@
         <v>1000</v>
       </c>
       <c r="Q31">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2335,24 +2383,24 @@
         <v>28013</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" s="7">
         <v>120</v>
       </c>
-      <c r="E32" s="9">
-        <v>36</v>
-      </c>
-      <c r="F32" s="9">
-        <v>3500</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1600</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="E32" s="8">
+        <v>40</v>
+      </c>
+      <c r="F32" s="8">
+        <v>5500</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="9">
         <v>2000</v>
       </c>
       <c r="J32">
@@ -2377,10 +2425,10 @@
         <v>1000</v>
       </c>
       <c r="Q32">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2388,24 +2436,24 @@
         <v>28014</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="7">
-        <v>150</v>
-      </c>
-      <c r="E33" s="9">
-        <v>44</v>
-      </c>
-      <c r="F33" s="9">
-        <v>4250</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1500</v>
-      </c>
-      <c r="I33" s="10">
+        <v>180</v>
+      </c>
+      <c r="E33" s="8">
+        <v>60</v>
+      </c>
+      <c r="F33" s="8">
+        <v>7000</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1150</v>
+      </c>
+      <c r="I33" s="9">
         <v>2000</v>
       </c>
       <c r="J33">
@@ -2430,10 +2478,10 @@
         <v>1000</v>
       </c>
       <c r="Q33">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="34" ht="17" spans="1:17">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2441,24 +2489,24 @@
         <v>28015</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" s="7">
-        <v>180</v>
-      </c>
-      <c r="E34" s="9">
-        <v>52</v>
-      </c>
-      <c r="F34" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
+        <v>250</v>
+      </c>
+      <c r="E34" s="8">
+        <v>80</v>
+      </c>
+      <c r="F34" s="8">
+        <v>9000</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
         <v>1400</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>2000</v>
       </c>
       <c r="J34">
@@ -2483,59 +2531,59 @@
         <v>1000</v>
       </c>
       <c r="Q34">
-        <v>8000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="3:9">
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" ht="17" spans="2:15">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="2:15">
       <c r="B38">
         <v>10001001</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7">
         <v>500</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>80</v>
       </c>
-      <c r="F38" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="8">
         <v>100</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>1400</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>3500</v>
       </c>
       <c r="J38">
@@ -2557,29 +2605,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="17" spans="2:15">
+    <row r="39" spans="2:15">
       <c r="B39">
         <v>10001002</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="7">
         <v>380</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>40</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>99999999</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>125</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>3000</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>4000</v>
       </c>
       <c r="J39">
@@ -2601,29 +2649,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="17" spans="2:15">
+    <row r="40" spans="2:15">
       <c r="B40">
         <v>10001003</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="7">
         <v>10</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>40</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>500</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>125</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>3000</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>6000</v>
       </c>
       <c r="J40">
@@ -2648,11 +2696,11 @@
     <row r="41" spans="3:14">
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="N41">
         <v>3000</v>
       </c>
@@ -2660,38 +2708,38 @@
     <row r="42" spans="3:14">
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="N42">
         <v>3000</v>
       </c>
     </row>
-    <row r="43" ht="17" spans="2:15">
+    <row r="43" spans="2:15">
       <c r="B43">
         <v>10003001</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D43" s="7">
         <v>180</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>50</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>200</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>125</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>1200</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>1250</v>
       </c>
       <c r="J43">
@@ -2713,29 +2761,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="17" spans="2:15">
+    <row r="44" spans="2:15">
       <c r="B44">
         <v>10003002</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" s="7">
         <v>20</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>50</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>20000</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>125</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>1500</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>1250</v>
       </c>
       <c r="J44">
@@ -2759,99 +2807,99 @@
     </row>
     <row r="45" spans="3:14">
       <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="N45">
         <v>3000</v>
       </c>
     </row>
     <row r="46" spans="3:14">
       <c r="C46" s="6"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="N46">
         <v>3000</v>
       </c>
     </row>
     <row r="47" spans="3:14">
       <c r="C47" s="6"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="N47">
         <v>3000</v>
       </c>
     </row>
     <row r="48" spans="3:14">
       <c r="C48" s="6"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="N48">
         <v>3000</v>
       </c>
     </row>
     <row r="49" spans="3:14">
       <c r="C49" s="6"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
       <c r="N49">
         <v>3000</v>
       </c>
     </row>
     <row r="50" spans="3:14">
       <c r="C50" s="6"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="N50">
         <v>3000</v>
       </c>
     </row>
-    <row r="51" ht="17" spans="2:15">
+    <row r="51" spans="2:15">
       <c r="B51">
         <v>10003031</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" s="7">
         <v>500</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>100</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>50000</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>125</v>
       </c>
-      <c r="H51" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I51" s="10">
+      <c r="H51" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I51" s="9">
         <v>3000</v>
       </c>
       <c r="J51">
@@ -2875,129 +2923,129 @@
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="6"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="6"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="6"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="6"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="6"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="6"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="6"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="6"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="6"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="6"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="6"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="6"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="6"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="65" spans="3:9">
       <c r="C65" s="6"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3015,7 +3063,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3032,7 +3080,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
